--- a/Questions/Free-Form Questions.xlsx
+++ b/Questions/Free-Form Questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DriveA\Research\GPT\Paper files\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5BC3F7-CB36-4C1A-9C90-F0A38EFB0F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7085DB-41D8-44C3-9C6E-F8AC2391DDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t>index</t>
   </si>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,9 +721,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="4" t="s">
         <v>40</v>
       </c>
@@ -736,8 +733,8 @@
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
@@ -751,7 +748,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>40</v>
@@ -765,7 +762,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>40</v>
@@ -779,7 +776,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
@@ -793,7 +790,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
@@ -807,7 +804,7 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>40</v>
